--- a/ferry/Staten Island Ferry Passenger Counts - by Month/2020/SIF Monthly Ridership_2020_07.xlsx
+++ b/ferry/Staten Island Ferry Passenger Counts - by Month/2020/SIF Monthly Ridership_2020_07.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Ridership Statistics\Staten Island Ferry\2020\Monthly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y_Ma2\Desktop\GITHUB\td-trends\ferry\Staten Island Ferry Passenger Counts - by Month\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35981036-E014-4DDF-BA3A-73F5946AC9AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12420" activeTab="1"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TOTAL" sheetId="1" r:id="rId1"/>
+    <sheet name="TOTALS" sheetId="1" r:id="rId1"/>
     <sheet name="WEEKDAY-WEEKEND" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>DAY</t>
   </si>
@@ -68,11 +77,14 @@
   <si>
     <t>Total Weekday Pax Count July 2020</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -333,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -426,12 +438,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -461,6 +467,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,710 +750,708 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="6" width="12.7109375" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="6" width="12.6640625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="29">
+    <row r="3" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="29">
         <v>44013</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
-    </row>
-    <row r="4" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" spans="2:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="19" t="str">
-        <f>CHOOSE(WEEKDAY(C5),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="str">
+        <f>CHOOSE(WEEKDAY(C6),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
         <v>WED</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C6" s="6">
         <v>44013</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D6" s="8">
         <v>9124</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E6" s="8">
         <v>8466</v>
       </c>
-      <c r="F5" s="20">
-        <f>SUM(D5:E5)</f>
+      <c r="F6" s="20">
+        <f>SUM(D6:E6)</f>
         <v>17590</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="19" t="str">
-        <f t="shared" ref="B6:B35" si="0">CHOOSE(WEEKDAY(C6),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="str">
+        <f t="shared" ref="B7:B36" si="0">CHOOSE(WEEKDAY(C7),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
         <v>THU</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C7" s="6">
         <v>44014</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D7" s="8">
         <v>9744</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E7" s="8">
         <v>9306</v>
       </c>
-      <c r="F6" s="20">
-        <f t="shared" ref="F6:F35" si="1">SUM(D6:E6)</f>
+      <c r="F7" s="20">
+        <f t="shared" ref="F7:F36" si="1">SUM(D7:E7)</f>
         <v>19050</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="19" t="str">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="str">
         <f t="shared" si="0"/>
         <v>FRI</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C8" s="6">
         <v>44015</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D8" s="8">
         <v>7736</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E8" s="8">
         <v>7177</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F8" s="20">
         <f t="shared" si="1"/>
         <v>14913</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="19" t="str">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="str">
         <f t="shared" si="0"/>
         <v>SAT</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C9" s="6">
         <v>44016</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D9" s="8">
         <v>7901</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E9" s="8">
         <v>7140</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F9" s="20">
         <f t="shared" si="1"/>
         <v>15041</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="19" t="str">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="str">
         <f t="shared" si="0"/>
         <v>SUN</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C10" s="6">
         <v>44017</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D10" s="8">
         <v>6614</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E10" s="8">
         <v>6010</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F10" s="20">
         <f t="shared" si="1"/>
         <v>12624</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="19" t="str">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="str">
         <f t="shared" si="0"/>
         <v>MON</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C11" s="6">
         <v>44018</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D11" s="8">
         <v>9041</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E11" s="8">
         <v>8548</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F11" s="20">
         <f t="shared" si="1"/>
         <v>17589</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="19" t="str">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="19" t="str">
         <f t="shared" si="0"/>
         <v>TUE</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C12" s="6">
         <v>44019</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D12" s="8">
         <v>9729</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E12" s="8">
         <v>9106</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F12" s="20">
         <f t="shared" si="1"/>
         <v>18835</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="19" t="str">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="19" t="str">
         <f t="shared" si="0"/>
         <v>WED</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C13" s="6">
         <v>44020</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D13" s="8">
         <v>9612</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E13" s="8">
         <v>9019</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F13" s="20">
         <f t="shared" si="1"/>
         <v>18631</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="19" t="str">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="19" t="str">
         <f t="shared" si="0"/>
         <v>THU</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C14" s="6">
         <v>44021</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D14" s="8">
         <v>10237</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E14" s="8">
         <v>9825</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F14" s="20">
         <f t="shared" si="1"/>
         <v>20062</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="19" t="str">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="19" t="str">
         <f t="shared" si="0"/>
         <v>FRI</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C15" s="6">
         <v>44022</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D15" s="8">
         <v>8008</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E15" s="8">
         <v>7476</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F15" s="20">
         <f t="shared" si="1"/>
         <v>15484</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="19" t="str">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="19" t="str">
         <f t="shared" si="0"/>
         <v>SAT</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C16" s="6">
         <v>44023</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D16" s="8">
         <v>6728</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E16" s="8">
         <v>6237</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F16" s="20">
         <f t="shared" si="1"/>
         <v>12965</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="19" t="str">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="19" t="str">
         <f t="shared" si="0"/>
         <v>SUN</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C17" s="6">
         <v>44024</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D17" s="8">
         <v>7523</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E17" s="8">
         <v>6876</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F17" s="20">
         <f t="shared" si="1"/>
         <v>14399</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="19" t="str">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="19" t="str">
         <f t="shared" si="0"/>
         <v>MON</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C18" s="6">
         <v>44025</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D18" s="8">
         <v>9743</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E18" s="8">
         <v>9331</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F18" s="20">
         <f t="shared" si="1"/>
         <v>19074</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="19" t="str">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="19" t="str">
         <f t="shared" si="0"/>
         <v>TUE</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C19" s="6">
         <v>44026</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D19" s="8">
         <v>10265</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E19" s="8">
         <v>9822</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F19" s="20">
         <f t="shared" si="1"/>
         <v>20087</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="19" t="str">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="19" t="str">
         <f t="shared" si="0"/>
         <v>WED</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C20" s="6">
         <v>44027</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D20" s="8">
         <v>9962</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E20" s="8">
         <v>9375</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F20" s="20">
         <f t="shared" si="1"/>
         <v>19337</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="19" t="str">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="19" t="str">
         <f t="shared" si="0"/>
         <v>THU</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C21" s="6">
         <v>44028</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D21" s="8">
         <v>10486</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E21" s="8">
         <v>9925</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F21" s="20">
         <f t="shared" si="1"/>
         <v>20411</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="19" t="str">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="19" t="str">
         <f t="shared" si="0"/>
         <v>FRI</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C22" s="6">
         <v>44029</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D22" s="8">
         <v>9822</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E22" s="8">
         <v>9069</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F22" s="20">
         <f t="shared" si="1"/>
         <v>18891</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="19" t="str">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="19" t="str">
         <f t="shared" si="0"/>
         <v>SAT</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C23" s="6">
         <v>44030</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D23" s="8">
         <v>8209</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E23" s="8">
         <v>7721</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F23" s="20">
         <f t="shared" si="1"/>
         <v>15930</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="19" t="str">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="19" t="str">
         <f t="shared" si="0"/>
         <v>SUN</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C24" s="6">
         <v>44031</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D24" s="8">
         <v>6521</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E24" s="8">
         <v>5935</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F24" s="20">
         <f t="shared" si="1"/>
         <v>12456</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="19" t="str">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="19" t="str">
         <f t="shared" si="0"/>
         <v>MON</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C25" s="6">
         <v>44032</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D25" s="8">
         <v>9319</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E25" s="8">
         <v>8916</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F25" s="20">
         <f t="shared" si="1"/>
         <v>18235</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="19" t="str">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="19" t="str">
         <f t="shared" si="0"/>
         <v>TUE</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C26" s="6">
         <v>44033</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D26" s="8">
         <v>10264</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E26" s="8">
         <v>9737</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F26" s="20">
         <f t="shared" si="1"/>
         <v>20001</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="19" t="str">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="19" t="str">
         <f t="shared" si="0"/>
         <v>WED</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C27" s="6">
         <v>44034</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D27" s="8">
         <v>10090</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E27" s="8">
         <v>9314</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F27" s="20">
         <f t="shared" si="1"/>
         <v>19404</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="19" t="str">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="19" t="str">
         <f t="shared" si="0"/>
         <v>THU</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C28" s="6">
         <v>44035</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D28" s="8">
         <v>9735</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E28" s="8">
         <v>9134</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F28" s="20">
         <f t="shared" si="1"/>
         <v>18869</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="19" t="str">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="19" t="str">
         <f t="shared" si="0"/>
         <v>FRI</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C29" s="6">
         <v>44036</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D29" s="8">
         <v>9733</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E29" s="8">
         <v>9296</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F29" s="20">
         <f t="shared" si="1"/>
         <v>19029</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="19" t="str">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="19" t="str">
         <f t="shared" si="0"/>
         <v>SAT</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C30" s="6">
         <v>44037</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D30" s="8">
         <v>8826</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E30" s="8">
         <v>8296</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F30" s="20">
         <f t="shared" si="1"/>
         <v>17122</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="19" t="str">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="str">
         <f t="shared" si="0"/>
         <v>SUN</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C31" s="6">
         <v>44038</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D31" s="8">
         <v>7268</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E31" s="8">
         <v>6685</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F31" s="20">
         <f t="shared" si="1"/>
         <v>13953</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="19" t="str">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="19" t="str">
         <f t="shared" si="0"/>
         <v>MON</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C32" s="6">
         <v>44039</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D32" s="8">
         <v>10094</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E32" s="8">
         <v>9658</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F32" s="20">
         <f t="shared" si="1"/>
         <v>19752</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="19" t="str">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="19" t="str">
         <f t="shared" si="0"/>
         <v>TUE</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C33" s="6">
         <v>44040</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D33" s="8">
         <v>10052</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E33" s="8">
         <v>9538</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F33" s="20">
         <f t="shared" si="1"/>
         <v>19590</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="19" t="str">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="19" t="str">
         <f t="shared" si="0"/>
         <v>WED</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C34" s="6">
         <v>44041</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D34" s="8">
         <v>10743</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E34" s="8">
         <v>10212</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F34" s="20">
         <f t="shared" si="1"/>
         <v>20955</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="19" t="str">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="19" t="str">
         <f t="shared" si="0"/>
         <v>THU</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C35" s="6">
         <v>44042</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D35" s="8">
         <v>10465</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E35" s="8">
         <v>9935</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F35" s="20">
         <f t="shared" si="1"/>
         <v>20400</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="19" t="str">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="19" t="str">
         <f t="shared" si="0"/>
         <v>FRI</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C36" s="6">
         <v>44043</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D36" s="8">
         <v>10350</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E36" s="8">
         <v>9713</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F36" s="20">
         <f t="shared" si="1"/>
         <v>20063</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="32" t="s">
+    <row r="37" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="21">
-        <f>SUM(D5:D35)</f>
+      <c r="D37" s="21">
+        <f>SUM(D6:D36)</f>
         <v>283944</v>
       </c>
-      <c r="E36" s="21">
-        <f>SUM(E5:E35)</f>
+      <c r="E37" s="21">
+        <f>SUM(E6:E36)</f>
         <v>266798</v>
       </c>
-      <c r="F36" s="22">
-        <f>SUM(F5:F35)</f>
+      <c r="F37" s="22">
+        <f>SUM(F6:F36)</f>
         <v>550742</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="40" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="34" t="s">
+    <row r="40" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="7">
-        <f>F36</f>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="7">
+        <f>F37</f>
         <v>550742</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B40:E40"/>
+  <mergeCells count="2">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B41:E41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F5:F35" formulaRange="1"/>
+    <ignoredError sqref="F6:F36" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="7" width="12.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="7" width="12.6640625" style="2" customWidth="1"/>
     <col min="8" max="10" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="2"/>
+    <col min="11" max="12" width="9.109375" style="2"/>
     <col min="13" max="13" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
+    <col min="14" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="41" t="s">
+    <row r="2" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
-    </row>
-    <row r="4" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
+    </row>
+    <row r="4" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
@@ -1465,7 +1472,7 @@
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="str">
         <f>CHOOSE(WEEKDAY(C5),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
         <v>WED</v>
@@ -1487,7 +1494,7 @@
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="str">
         <f>CHOOSE(WEEKDAY(C6),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
         <v>THU</v>
@@ -1509,7 +1516,7 @@
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="str">
         <f>CHOOSE(WEEKDAY(C7),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
         <v>FRI</v>
@@ -1531,7 +1538,7 @@
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="str">
         <f t="shared" ref="B8:B9" si="1">CHOOSE(WEEKDAY(C8),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
         <v>MON</v>
@@ -1554,7 +1561,7 @@
       <c r="J8" s="27"/>
       <c r="M8" s="25"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="str">
         <f t="shared" si="1"/>
         <v>TUE</v>
@@ -1577,7 +1584,7 @@
       <c r="J9" s="27"/>
       <c r="M9" s="25"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="str">
         <f t="shared" ref="B10:B27" si="2">CHOOSE(WEEKDAY(C10),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
         <v>WED</v>
@@ -1600,7 +1607,7 @@
       <c r="J10" s="27"/>
       <c r="M10" s="25"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="str">
         <f t="shared" si="2"/>
         <v>THU</v>
@@ -1623,7 +1630,7 @@
       <c r="J11" s="27"/>
       <c r="M11" s="25"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="str">
         <f t="shared" si="2"/>
         <v>FRI</v>
@@ -1646,7 +1653,7 @@
       <c r="J12" s="27"/>
       <c r="M12" s="25"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="str">
         <f t="shared" si="2"/>
         <v>MON</v>
@@ -1669,7 +1676,7 @@
       <c r="J13" s="27"/>
       <c r="M13" s="25"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="str">
         <f t="shared" si="2"/>
         <v>TUE</v>
@@ -1692,7 +1699,7 @@
       <c r="J14" s="27"/>
       <c r="M14" s="25"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="str">
         <f t="shared" si="2"/>
         <v>WED</v>
@@ -1715,7 +1722,7 @@
       <c r="J15" s="27"/>
       <c r="M15" s="25"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="str">
         <f t="shared" si="2"/>
         <v>THU</v>
@@ -1737,7 +1744,7 @@
       <c r="I16" s="27"/>
       <c r="J16" s="27"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="str">
         <f t="shared" si="2"/>
         <v>FRI</v>
@@ -1759,7 +1766,7 @@
       <c r="I17" s="27"/>
       <c r="J17" s="27"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="str">
         <f t="shared" si="2"/>
         <v>MON</v>
@@ -1781,7 +1788,7 @@
       <c r="I18" s="27"/>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="str">
         <f t="shared" si="2"/>
         <v>TUE</v>
@@ -1803,7 +1810,7 @@
       <c r="I19" s="27"/>
       <c r="J19" s="27"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="str">
         <f t="shared" si="2"/>
         <v>WED</v>
@@ -1825,7 +1832,7 @@
       <c r="I20" s="27"/>
       <c r="J20" s="27"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="str">
         <f t="shared" si="2"/>
         <v>THU</v>
@@ -1847,7 +1854,7 @@
       <c r="I21" s="27"/>
       <c r="J21" s="27"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="str">
         <f t="shared" si="2"/>
         <v>FRI</v>
@@ -1869,7 +1876,7 @@
       <c r="I22" s="27"/>
       <c r="J22" s="27"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="str">
         <f t="shared" si="2"/>
         <v>MON</v>
@@ -1891,7 +1898,7 @@
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="15" t="str">
         <f t="shared" si="2"/>
         <v>TUE</v>
@@ -1913,7 +1920,7 @@
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="15" t="str">
         <f t="shared" si="2"/>
         <v>WED</v>
@@ -1935,7 +1942,7 @@
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="str">
         <f t="shared" si="2"/>
         <v>THU</v>
@@ -1957,7 +1964,7 @@
       <c r="I26" s="27"/>
       <c r="J26" s="27"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="15" t="str">
         <f t="shared" si="2"/>
         <v>FRI</v>
@@ -1979,11 +1986,11 @@
       <c r="I27" s="27"/>
       <c r="J27" s="27"/>
     </row>
-    <row r="28" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="37" t="s">
+    <row r="28" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="38"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="24">
         <f>SUM(D5:D27)</f>
         <v>224354</v>
@@ -2000,18 +2007,18 @@
       <c r="I28" s="27"/>
       <c r="J28" s="27"/>
     </row>
-    <row r="29" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H29" s="28"/>
       <c r="I29" s="27"/>
       <c r="J29" s="27"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="39" t="s">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
       <c r="F30" s="9">
         <f>F28</f>
         <v>436252</v>
@@ -2020,13 +2027,13 @@
       <c r="I30" s="27"/>
       <c r="J30" s="27"/>
     </row>
-    <row r="31" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="37" t="s">
+    <row r="31" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
       <c r="F31" s="10">
         <f>AVERAGE(F5:F27)</f>
         <v>18967.478260869564</v>
@@ -2035,34 +2042,34 @@
       <c r="I31" s="27"/>
       <c r="J31" s="27"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H32" s="28"/>
       <c r="I32" s="27"/>
       <c r="J32" s="27"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H33" s="28"/>
       <c r="I33" s="27"/>
       <c r="J33" s="27"/>
     </row>
-    <row r="34" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H34" s="28"/>
       <c r="I34" s="27"/>
       <c r="J34" s="27"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="41" t="s">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="43"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="41"/>
       <c r="H35" s="28"/>
       <c r="I35" s="27"/>
       <c r="J35" s="27"/>
     </row>
-    <row r="36" spans="2:10" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="s">
         <v>0</v>
       </c>
@@ -2082,7 +2089,7 @@
       <c r="I36" s="28"/>
       <c r="J36" s="27"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="15" t="str">
         <f t="shared" ref="B37:B44" si="3">CHOOSE(WEEKDAY(C37),"SUN","MON","TUE","WED","THU","FRI","SAT")</f>
         <v>SAT</v>
@@ -2101,7 +2108,7 @@
         <v>15041</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="15" t="str">
         <f t="shared" si="3"/>
         <v>SUN</v>
@@ -2120,7 +2127,7 @@
         <v>12624</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="15" t="str">
         <f t="shared" si="3"/>
         <v>SAT</v>
@@ -2139,7 +2146,7 @@
         <v>12965</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="15" t="str">
         <f t="shared" si="3"/>
         <v>SUN</v>
@@ -2158,7 +2165,7 @@
         <v>14399</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="15" t="str">
         <f t="shared" si="3"/>
         <v>SAT</v>
@@ -2177,7 +2184,7 @@
         <v>15930</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="15" t="str">
         <f t="shared" si="3"/>
         <v>SUN</v>
@@ -2196,7 +2203,7 @@
         <v>12456</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="15" t="str">
         <f t="shared" si="3"/>
         <v>SAT</v>
@@ -2215,7 +2222,7 @@
         <v>17122</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="15" t="str">
         <f t="shared" si="3"/>
         <v>SUN</v>
@@ -2234,11 +2241,11 @@
         <v>13953</v>
       </c>
     </row>
-    <row r="45" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="37" t="s">
+    <row r="45" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="38"/>
+      <c r="C45" s="36"/>
       <c r="D45" s="17">
         <f>SUM(D37:D44)</f>
         <v>59590</v>
@@ -2252,32 +2259,32 @@
         <v>114490</v>
       </c>
     </row>
-    <row r="46" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B47" s="39" t="s">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
       <c r="F47" s="23">
         <f>AVERAGE(F37,F39,F41,F43)</f>
         <v>15264.5</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="37" t="s">
+    <row r="48" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
       <c r="F48" s="10">
         <f>AVERAGE(F38,F40,F42,F44)</f>
         <v>13358</v>
@@ -2497,13 +2504,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE49042-7779-4D53-9540-4F86380C9306}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE49042-7779-4D53-9540-4F86380C9306}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="670d3029-f9df-404e-98fc-7004dcdec636"/>
+    <ds:schemaRef ds:uri="5f7ac3ca-9ce0-489a-bc70-1e3f2f642f01"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56222A58-22D9-4EA6-8BF6-5AE6D3720E88}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56222A58-22D9-4EA6-8BF6-5AE6D3720E88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DA06A62-80DA-4FCB-B1F8-08C7A1A5DFAD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DA06A62-80DA-4FCB-B1F8-08C7A1A5DFAD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>